--- a/output/1Y_P74_1VAL-D.xlsx
+++ b/output/1Y_P74_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G2" s="1">
-        <v>551.6663</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.143400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1269</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E3" s="1">
+        <v>551.6663</v>
+      </c>
       <c r="F3" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G3" s="1">
-        <v>1110.8973</v>
-      </c>
       <c r="H3" s="1">
-        <v>19761.7512</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0035</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1269</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19761.7512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E4" s="1">
+        <v>1110.8973</v>
+      </c>
       <c r="F4" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G4" s="1">
-        <v>1669.8156</v>
-      </c>
       <c r="H4" s="1">
-        <v>29721.0485</v>
+        <v>19772.8602</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9661</v>
+        <v>19772.8602</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0035</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29721.0485</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0014</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E5" s="1">
+        <v>1669.8156</v>
+      </c>
       <c r="F5" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>2285.045</v>
-      </c>
       <c r="H5" s="1">
-        <v>36948.721</v>
+        <v>27000.5849</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5051</v>
+        <v>27000.5849</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.9661</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>751.417</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9248.583000000001</v>
+        <v>499.9038</v>
       </c>
       <c r="O5" s="1">
-        <v>751.417</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37700.1381</v>
+        <v>-9500.0962</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0509</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E6" s="1">
+        <v>2285.045</v>
+      </c>
       <c r="F6" s="1">
-        <v>653.1215</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.1665</v>
+        <v>651.0872000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>45173.4285</v>
+        <v>35131.8817</v>
       </c>
       <c r="I6" s="1">
-        <v>50093.9271</v>
+        <v>499.9038</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0494</v>
+        <v>35631.7855</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40062.488</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.5325</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>657.4899</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>45830.9184</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0392</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E7" s="1">
+        <v>2936.1322</v>
+      </c>
       <c r="F7" s="1">
-        <v>646.2885</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3584.455</v>
+        <v>644.2755</v>
       </c>
       <c r="H7" s="1">
-        <v>55692.7521</v>
+        <v>45619.5676</v>
       </c>
       <c r="I7" s="1">
-        <v>60187.8543</v>
+        <v>437.4158</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7914</v>
+        <v>46056.9834</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50124.9759</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0718</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>563.5628</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56256.3149</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0076</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E8" s="1">
+        <v>3580.4077</v>
+      </c>
       <c r="F8" s="1">
-        <v>628.8033</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4213.2582</v>
+        <v>626.8447</v>
       </c>
       <c r="H8" s="1">
-        <v>67282.78449999999</v>
+        <v>57176.6054</v>
       </c>
       <c r="I8" s="1">
-        <v>70281.78140000001</v>
+        <v>374.9278</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6811</v>
+        <v>57551.5332</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60187.4639</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.8102</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>469.6356</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67752.42019999999</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0226</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E9" s="1">
+        <v>4207.2525</v>
+      </c>
       <c r="F9" s="1">
-        <v>640.6321</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4853.8903</v>
+        <v>638.6367</v>
       </c>
       <c r="H9" s="1">
-        <v>76082.30349999999</v>
+        <v>65946.57919999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80375.70849999999</v>
+        <v>312.4399</v>
       </c>
       <c r="J9" s="1">
-        <v>16.559</v>
+        <v>66259.019</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70249.9519</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6973</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>375.7085</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76458.012</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0166</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E10" s="1">
+        <v>4845.8892</v>
+      </c>
       <c r="F10" s="1">
-        <v>657.1353</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5511.0256</v>
+        <v>655.0886</v>
       </c>
       <c r="H10" s="1">
-        <v>84212.8803</v>
+        <v>74049.06389999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90469.63559999999</v>
+        <v>249.9519</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4161</v>
+        <v>74299.01579999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80312.4399</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5733</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>281.7814</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84494.6617</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0227</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E11" s="1">
+        <v>5500.9778</v>
+      </c>
       <c r="F11" s="1">
-        <v>660.6146</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6171.6402</v>
+        <v>658.557</v>
       </c>
       <c r="H11" s="1">
-        <v>93810.7831</v>
+        <v>83616.5126</v>
       </c>
       <c r="I11" s="1">
-        <v>100563.5628</v>
+        <v>187.4639</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2945</v>
+        <v>83803.9765</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90374.9278</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4289</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>187.8543</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93998.63740000001</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0052</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E12" s="1">
+        <v>6159.5348</v>
+      </c>
       <c r="F12" s="1">
-        <v>655.3561999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6826.9964</v>
+        <v>653.3150000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>104605.2874</v>
+        <v>94378.2403</v>
       </c>
       <c r="I12" s="1">
-        <v>110657.4899</v>
+        <v>124.9759</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2088</v>
+        <v>94503.2162</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100437.4158</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.306</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>93.9271</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>104699.2145</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0067</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.042</v>
       </c>
+      <c r="E13" s="1">
+        <v>6812.8498</v>
+      </c>
       <c r="F13" s="1">
-        <v>629.2187</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7456.2152</v>
+        <v>627.2589</v>
       </c>
       <c r="H13" s="1">
-        <v>118992.9924</v>
+        <v>108725.5886</v>
       </c>
       <c r="I13" s="1">
-        <v>120751.417</v>
+        <v>62.488</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1947</v>
+        <v>108788.0765</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2193</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10093.9271</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118992.9924</v>
+        <v>-10062.488</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0374</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E14" s="1">
+        <v>7440.1087</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7456.2152</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6812.8498</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117270.9939</v>
       </c>
       <c r="I14" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1947</v>
+        <v>117270.9939</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8519</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117524.8636</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117524.8636</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117524.8636</v>
+        <v>107384.1384</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.1269</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.6663</v>
       </c>
       <c r="G2" s="1">
-        <v>551.6663</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1269</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.8817</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>551.6663</v>
       </c>
       <c r="F3" s="1">
         <v>559.2309</v>
       </c>
       <c r="G3" s="1">
-        <v>1110.8973</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19761.7512</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0035</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1269</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19761.7512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.8917</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1110.8973</v>
       </c>
       <c r="F4" s="1">
         <v>558.9184</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.8156</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29721.0485</v>
+        <v>19772.8602</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9661</v>
+        <v>19772.8602</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0035</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29721.0485</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0014</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.2541</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1669.8156</v>
       </c>
       <c r="F5" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.045</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>36948.721</v>
+        <v>27000.5849</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5051</v>
+        <v>27000.5849</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.9661</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>751.417</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9248.583000000001</v>
+        <v>499.9038</v>
       </c>
       <c r="O5" s="1">
-        <v>751.417</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37700.1381</v>
+        <v>-9500.0962</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0509</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.4549</v>
       </c>
       <c r="E6" s="1">
+        <v>2285.045</v>
+      </c>
+      <c r="F6" s="1">
+        <v>679.39</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>695.664</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2980.709</v>
-      </c>
       <c r="H6" s="1">
-        <v>45827.5065</v>
+        <v>35131.8817</v>
       </c>
       <c r="I6" s="1">
-        <v>50751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0266</v>
+        <v>35631.7855</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40499.9038</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7239</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10751.417</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>45827.5065</v>
+        <v>-10499.9038</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0393</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.6183</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2964.435</v>
       </c>
       <c r="F7" s="1">
         <v>640.2745</v>
       </c>
       <c r="G7" s="1">
-        <v>3620.9835</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>56260.3075</v>
+        <v>46059.3155</v>
       </c>
       <c r="I7" s="1">
-        <v>60751.417</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7776</v>
+        <v>46059.3155</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50499.9038</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0353</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56260.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0078</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.0526</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3604.7095</v>
       </c>
       <c r="F8" s="1">
         <v>622.952</v>
       </c>
       <c r="G8" s="1">
-        <v>4243.9356</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67772.6805</v>
+        <v>57564.6878</v>
       </c>
       <c r="I8" s="1">
-        <v>70751.417</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6712</v>
+        <v>57564.6878</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60499.9038</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7836</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67772.6805</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.7562</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4227.6616</v>
       </c>
       <c r="F9" s="1">
         <v>634.6708</v>
       </c>
       <c r="G9" s="1">
-        <v>4878.6064</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>76469.7157</v>
+        <v>66266.4813</v>
       </c>
       <c r="I9" s="1">
-        <v>80751.417</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5521</v>
+        <v>66266.4813</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70499.9038</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6759</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76469.7157</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0168</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.3605</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4862.3324</v>
       </c>
       <c r="F10" s="1">
         <v>651.0205</v>
       </c>
       <c r="G10" s="1">
-        <v>5529.6269</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84497.12209999999</v>
+        <v>74300.3284</v>
       </c>
       <c r="I10" s="1">
-        <v>90751.417</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4119</v>
+        <v>74300.3284</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80499.9038</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5558</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>84497.12209999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0228</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.2796</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5513.3528</v>
       </c>
       <c r="F11" s="1">
         <v>654.4674</v>
       </c>
       <c r="G11" s="1">
-        <v>6184.0942</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94000.08779999999</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100751.417</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.292</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90499.9038</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4147</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94000.08779999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.4022</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6167.8202</v>
       </c>
       <c r="F12" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6833.3521</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104702.6716</v>
+        <v>94505.192</v>
       </c>
       <c r="I12" s="1">
-        <v>110751.417</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2075</v>
+        <v>94505.192</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100499.9038</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2942</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104702.6716</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.042</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6817.0781</v>
       </c>
       <c r="F13" s="1">
         <v>623.3637</v>
       </c>
       <c r="G13" s="1">
-        <v>7456.7158</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119000.9821</v>
+        <v>108793.0682</v>
       </c>
       <c r="I13" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1936</v>
+        <v>108793.0682</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2093</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119000.9821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0375</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.8442</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7440.4418</v>
       </c>
       <c r="F14" s="1">
-        <v>-7456.7158</v>
+        <v>-7440.4418</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117276.2437</v>
       </c>
       <c r="I14" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1936</v>
+        <v>117276.2437</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8513</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117532.7547</v>
+        <v>117276.2437</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.1269</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.6663</v>
       </c>
       <c r="G2" s="1">
-        <v>551.6663</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1269</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.8817</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>551.6663</v>
       </c>
       <c r="F3" s="1">
         <v>559.2309</v>
       </c>
       <c r="G3" s="1">
-        <v>1110.8973</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19761.7512</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0035</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1269</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19761.7512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.8917</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1110.8973</v>
       </c>
       <c r="F4" s="1">
         <v>558.9184</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.8156</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29721.0485</v>
+        <v>19772.8602</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9661</v>
+        <v>19772.8602</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0035</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29721.0485</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0014</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.2541</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1669.8156</v>
       </c>
       <c r="F5" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.045</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>36948.721</v>
+        <v>27000.5849</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5051</v>
+        <v>27000.5849</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.9661</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>751.417</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9248.583000000001</v>
+        <v>499.9038</v>
       </c>
       <c r="O5" s="1">
-        <v>751.417</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37700.1381</v>
+        <v>-9500.0962</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0509</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.4549</v>
       </c>
       <c r="E6" s="1">
+        <v>2285.045</v>
+      </c>
+      <c r="F6" s="1">
+        <v>679.39</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>695.664</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2980.709</v>
-      </c>
       <c r="H6" s="1">
-        <v>45827.5065</v>
+        <v>35131.8817</v>
       </c>
       <c r="I6" s="1">
-        <v>50751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0266</v>
+        <v>35631.7855</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40499.9038</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7239</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10751.417</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>45827.5065</v>
+        <v>-10499.9038</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0393</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.6183</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2964.435</v>
       </c>
       <c r="F7" s="1">
         <v>640.2745</v>
       </c>
       <c r="G7" s="1">
-        <v>3620.9835</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>56260.3075</v>
+        <v>46059.3155</v>
       </c>
       <c r="I7" s="1">
-        <v>60751.417</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7776</v>
+        <v>46059.3155</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50499.9038</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0353</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56260.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0078</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.0526</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3604.7095</v>
       </c>
       <c r="F8" s="1">
         <v>622.952</v>
       </c>
       <c r="G8" s="1">
-        <v>4243.9356</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67772.6805</v>
+        <v>57564.6878</v>
       </c>
       <c r="I8" s="1">
-        <v>70751.417</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6712</v>
+        <v>57564.6878</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60499.9038</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7836</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67772.6805</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.7562</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4227.6616</v>
       </c>
       <c r="F9" s="1">
         <v>634.6708</v>
       </c>
       <c r="G9" s="1">
-        <v>4878.6064</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76469.7157</v>
+        <v>66266.4813</v>
       </c>
       <c r="I9" s="1">
-        <v>80751.417</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5521</v>
+        <v>66266.4813</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70499.9038</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6759</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76469.7157</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0168</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.3605</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4862.3324</v>
       </c>
       <c r="F10" s="1">
         <v>651.0205</v>
       </c>
       <c r="G10" s="1">
-        <v>5529.6269</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84497.12209999999</v>
+        <v>74300.3284</v>
       </c>
       <c r="I10" s="1">
-        <v>90751.417</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4119</v>
+        <v>74300.3284</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80499.9038</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5558</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>84497.12209999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0228</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.2796</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5513.3528</v>
       </c>
       <c r="F11" s="1">
         <v>654.4674</v>
       </c>
       <c r="G11" s="1">
-        <v>6184.0942</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94000.08779999999</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100751.417</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.292</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90499.9038</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4147</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94000.08779999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.4022</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6167.8202</v>
       </c>
       <c r="F12" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6833.3521</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104702.6716</v>
+        <v>94505.192</v>
       </c>
       <c r="I12" s="1">
-        <v>110751.417</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2075</v>
+        <v>94505.192</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100499.9038</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2942</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104702.6716</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.042</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6817.0781</v>
       </c>
       <c r="F13" s="1">
         <v>623.3637</v>
       </c>
       <c r="G13" s="1">
-        <v>7456.7158</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119000.9821</v>
+        <v>108793.0682</v>
       </c>
       <c r="I13" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1936</v>
+        <v>108793.0682</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2093</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119000.9821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0375</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.8442</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7440.4418</v>
       </c>
       <c r="F14" s="1">
-        <v>-7456.7158</v>
+        <v>-7440.4418</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117276.2437</v>
       </c>
       <c r="I14" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1936</v>
+        <v>117276.2437</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8513</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117532.7547</v>
+        <v>117276.2437</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.1269</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.6663</v>
       </c>
       <c r="G2" s="1">
-        <v>551.6663</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1269</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.8817</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>551.6663</v>
       </c>
       <c r="F3" s="1">
         <v>559.2309</v>
       </c>
       <c r="G3" s="1">
-        <v>1110.8973</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19761.7512</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0035</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1269</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19761.7512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.8917</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1110.8973</v>
       </c>
       <c r="F4" s="1">
         <v>558.9184</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.8156</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29721.0485</v>
+        <v>19772.8602</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9661</v>
+        <v>19772.8602</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0035</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29721.0485</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0014</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.2541</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1669.8156</v>
       </c>
       <c r="F5" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.045</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>36948.721</v>
+        <v>27000.5849</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5051</v>
+        <v>27000.5849</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.9661</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>751.417</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9248.583000000001</v>
+        <v>499.9038</v>
       </c>
       <c r="O5" s="1">
-        <v>751.417</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37700.1381</v>
+        <v>-9500.0962</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0509</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.4549</v>
       </c>
       <c r="E6" s="1">
+        <v>2285.045</v>
+      </c>
+      <c r="F6" s="1">
+        <v>679.39</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>695.664</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2980.709</v>
-      </c>
       <c r="H6" s="1">
-        <v>45827.5065</v>
+        <v>35131.8817</v>
       </c>
       <c r="I6" s="1">
-        <v>50751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0266</v>
+        <v>35631.7855</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40499.9038</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7239</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10751.417</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>45827.5065</v>
+        <v>-10499.9038</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0393</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.6183</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2964.435</v>
       </c>
       <c r="F7" s="1">
         <v>640.2745</v>
       </c>
       <c r="G7" s="1">
-        <v>3620.9835</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>56260.3075</v>
+        <v>46059.3155</v>
       </c>
       <c r="I7" s="1">
-        <v>60751.417</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7776</v>
+        <v>46059.3155</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50499.9038</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0353</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56260.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0078</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.0526</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3604.7095</v>
       </c>
       <c r="F8" s="1">
         <v>622.952</v>
       </c>
       <c r="G8" s="1">
-        <v>4243.9356</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67772.6805</v>
+        <v>57564.6878</v>
       </c>
       <c r="I8" s="1">
-        <v>70751.417</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6712</v>
+        <v>57564.6878</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60499.9038</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7836</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67772.6805</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.7562</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4227.6616</v>
       </c>
       <c r="F9" s="1">
         <v>634.6708</v>
       </c>
       <c r="G9" s="1">
-        <v>4878.6064</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>76469.7157</v>
+        <v>66266.4813</v>
       </c>
       <c r="I9" s="1">
-        <v>80751.417</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5521</v>
+        <v>66266.4813</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70499.9038</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6759</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76469.7157</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0168</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.3605</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4862.3324</v>
       </c>
       <c r="F10" s="1">
         <v>651.0205</v>
       </c>
       <c r="G10" s="1">
-        <v>5529.6269</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84497.12209999999</v>
+        <v>74300.3284</v>
       </c>
       <c r="I10" s="1">
-        <v>90751.417</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4119</v>
+        <v>74300.3284</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80499.9038</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5558</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>84497.12209999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0228</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.2796</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5513.3528</v>
       </c>
       <c r="F11" s="1">
         <v>654.4674</v>
       </c>
       <c r="G11" s="1">
-        <v>6184.0942</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94000.08779999999</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100751.417</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.292</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90499.9038</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4147</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94000.08779999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.4022</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6167.8202</v>
       </c>
       <c r="F12" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6833.3521</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104702.6716</v>
+        <v>94505.192</v>
       </c>
       <c r="I12" s="1">
-        <v>110751.417</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2075</v>
+        <v>94505.192</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100499.9038</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2942</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104702.6716</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.042</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6817.0781</v>
       </c>
       <c r="F13" s="1">
         <v>623.3637</v>
       </c>
       <c r="G13" s="1">
-        <v>7456.7158</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119000.9821</v>
+        <v>108793.0682</v>
       </c>
       <c r="I13" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1936</v>
+        <v>108793.0682</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2093</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119000.9821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0375</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.8442</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7440.4418</v>
       </c>
       <c r="F14" s="1">
-        <v>-7456.7158</v>
+        <v>-7440.4418</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117276.2437</v>
       </c>
       <c r="I14" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1936</v>
+        <v>117276.2437</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8513</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117532.7547</v>
+        <v>117276.2437</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.1269</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.6663</v>
       </c>
       <c r="G2" s="1">
-        <v>551.6663</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1269</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.8817</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>551.6663</v>
       </c>
       <c r="F3" s="1">
         <v>559.2309</v>
       </c>
       <c r="G3" s="1">
-        <v>1110.8973</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19761.7512</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0035</v>
+        <v>9813.592000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1269</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19761.7512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.8917</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1110.8973</v>
       </c>
       <c r="F4" s="1">
         <v>558.9184</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.8156</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29721.0485</v>
+        <v>19772.8602</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9661</v>
+        <v>19772.8602</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0035</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29721.0485</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0014</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.2541</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1669.8156</v>
       </c>
       <c r="F5" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.045</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>36948.721</v>
+        <v>27000.5849</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5051</v>
+        <v>27000.5849</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.9661</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>751.417</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9248.583000000001</v>
+        <v>499.9038</v>
       </c>
       <c r="O5" s="1">
-        <v>751.417</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37700.1381</v>
+        <v>-9500.0962</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0509</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.4549</v>
       </c>
       <c r="E6" s="1">
+        <v>2285.045</v>
+      </c>
+      <c r="F6" s="1">
+        <v>679.39</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>695.664</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2980.709</v>
-      </c>
       <c r="H6" s="1">
-        <v>45827.5065</v>
+        <v>35131.8817</v>
       </c>
       <c r="I6" s="1">
-        <v>50751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0266</v>
+        <v>35631.7855</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40499.9038</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7239</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10751.417</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>45827.5065</v>
+        <v>-10499.9038</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0393</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.6183</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2964.435</v>
       </c>
       <c r="F7" s="1">
         <v>640.2745</v>
       </c>
       <c r="G7" s="1">
-        <v>3620.9835</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>56260.3075</v>
+        <v>46059.3155</v>
       </c>
       <c r="I7" s="1">
-        <v>60751.417</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.7776</v>
+        <v>46059.3155</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50499.9038</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0353</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56260.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0078</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.0526</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3604.7095</v>
       </c>
       <c r="F8" s="1">
         <v>622.952</v>
       </c>
       <c r="G8" s="1">
-        <v>4243.9356</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67772.6805</v>
+        <v>57564.6878</v>
       </c>
       <c r="I8" s="1">
-        <v>70751.417</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6712</v>
+        <v>57564.6878</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60499.9038</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7836</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67772.6805</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.7562</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4227.6616</v>
       </c>
       <c r="F9" s="1">
         <v>634.6708</v>
       </c>
       <c r="G9" s="1">
-        <v>4878.6064</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76469.7157</v>
+        <v>66266.4813</v>
       </c>
       <c r="I9" s="1">
-        <v>80751.417</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5521</v>
+        <v>66266.4813</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70499.9038</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6759</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76469.7157</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0168</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.3605</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4862.3324</v>
       </c>
       <c r="F10" s="1">
         <v>651.0205</v>
       </c>
       <c r="G10" s="1">
-        <v>5529.6269</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84497.12209999999</v>
+        <v>74300.3284</v>
       </c>
       <c r="I10" s="1">
-        <v>90751.417</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4119</v>
+        <v>74300.3284</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80499.9038</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5558</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>84497.12209999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0228</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.2796</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5513.3528</v>
       </c>
       <c r="F11" s="1">
         <v>654.4674</v>
       </c>
       <c r="G11" s="1">
-        <v>6184.0942</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94000.08779999999</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100751.417</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.292</v>
+        <v>83804.61719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90499.9038</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4147</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94000.08779999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.4022</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6167.8202</v>
       </c>
       <c r="F12" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6833.3521</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104702.6716</v>
+        <v>94505.192</v>
       </c>
       <c r="I12" s="1">
-        <v>110751.417</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2075</v>
+        <v>94505.192</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100499.9038</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2942</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104702.6716</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.042</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6817.0781</v>
       </c>
       <c r="F13" s="1">
         <v>623.3637</v>
       </c>
       <c r="G13" s="1">
-        <v>7456.7158</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119000.9821</v>
+        <v>108793.0682</v>
       </c>
       <c r="I13" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1936</v>
+        <v>108793.0682</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2093</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119000.9821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0375</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.8442</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7440.4418</v>
       </c>
       <c r="F14" s="1">
-        <v>-7456.7158</v>
+        <v>-7440.4418</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117276.2437</v>
       </c>
       <c r="I14" s="1">
-        <v>120751.417</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1936</v>
+        <v>117276.2437</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110499.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8513</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117532.7547</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117532.7547</v>
+        <v>117276.2437</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08890000000000001</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.8015</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1947</v>
+        <v>14.8519</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1936</v>
+        <v>14.8513</v>
       </c>
       <c r="E3" s="1">
-        <v>16.1936</v>
+        <v>14.8513</v>
       </c>
       <c r="F3" s="1">
-        <v>16.1936</v>
+        <v>14.8513</v>
       </c>
       <c r="G3" s="1">
-        <v>16.1936</v>
+        <v>14.8513</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1269</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1599</v>
+        <v>-0.1298</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1598</v>
+        <v>-0.1297</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1598</v>
+        <v>-0.1297</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1598</v>
+        <v>-0.1297</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1598</v>
+        <v>-0.1297</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.116</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1132</v>
+        <v>0.1129</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1134</v>
+        <v>0.113</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1134</v>
+        <v>0.113</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1134</v>
+        <v>0.113</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1134</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.2688</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.5918</v>
+        <v>-1.3303</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.5884</v>
+        <v>-1.328</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.5884</v>
+        <v>-1.328</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.5884</v>
+        <v>-1.328</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.5884</v>
+        <v>-1.328</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.038</v>
+        <v>-0.1886</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0378</v>
+        <v>-0.0417</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0378</v>
+        <v>-0.0417</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0378</v>
+        <v>-0.0417</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0378</v>
+        <v>-0.0417</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="D8" s="1">
-        <v>751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="E8" s="1">
-        <v>751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="F8" s="1">
-        <v>751.417</v>
+        <v>499.9038</v>
       </c>
       <c r="G8" s="1">
-        <v>751.417</v>
+        <v>499.9038</v>
       </c>
     </row>
   </sheetData>
